--- a/excel/74city.xlsx
+++ b/excel/74city.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jalon/Documents/code/web-heat-map/public/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{487AAC9E-C051-D443-9F54-3B5763D74E3C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{48BE2443-DD65-7B4B-B2AA-11247E3E9FA4}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="168">
   <si>
     <t>石家庄</t>
   </si>
@@ -216,9 +216,6 @@
     <t>北京</t>
   </si>
   <si>
-    <t>荣庆</t>
-  </si>
-  <si>
     <t>南宁</t>
   </si>
   <si>
@@ -235,9 +232,6 @@
   </si>
   <si>
     <t>承德</t>
-  </si>
-  <si>
-    <t>面水</t>
   </si>
   <si>
     <t>西宁</t>
@@ -566,15 +560,18 @@
   </si>
   <si>
     <t>娴峰彛</t>
-  </si>
-  <si>
-    <t>靑岛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>昆明</t>
     <rPh sb="0" eb="2">
       <t>kun'mi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青岛</t>
+    <rPh sb="0" eb="2">
+      <t>qin</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -944,10 +941,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C75"/>
+  <dimension ref="A1:C73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="H67" sqref="H67"/>
+    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A70" sqref="A70:XFD70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -958,13 +955,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1167,7 +1164,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B20">
         <v>41.808644999999999</v>
@@ -1178,7 +1175,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B21">
         <v>30.581084000000001</v>
@@ -1189,7 +1186,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B22">
         <v>36.640739000000004</v>
@@ -1200,7 +1197,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B23">
         <v>45.773224999999996</v>
@@ -1211,7 +1208,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B24">
         <v>38.502620999999998</v>
@@ -1222,7 +1219,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B25">
         <v>36.074094000000002</v>
@@ -1233,7 +1230,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B26">
         <v>32.057236000000003</v>
@@ -1431,57 +1428,57 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B44">
-        <v>23.30752</v>
+        <v>30.259243999999999</v>
       </c>
       <c r="C44">
-        <v>113.35554</v>
+        <v>120.219375</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B45">
-        <v>30.259243999999999</v>
+        <v>40.992521000000004</v>
       </c>
       <c r="C45">
-        <v>120.219375</v>
+        <v>117.93382200000001</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B46">
-        <v>40.992521000000004</v>
+        <v>36.064225999999998</v>
       </c>
       <c r="C46">
-        <v>117.93382200000001</v>
+        <v>103.823305</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B47">
-        <v>36.064225999999998</v>
+        <v>32.204408999999998</v>
       </c>
       <c r="C47">
-        <v>103.823305</v>
+        <v>119.45583499999999</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B48">
-        <v>32.204408999999998</v>
+        <v>30.773992</v>
       </c>
       <c r="C48">
-        <v>119.45583499999999</v>
+        <v>120.760428</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1489,301 +1486,280 @@
         <v>66</v>
       </c>
       <c r="B49">
-        <v>30.773992</v>
+        <v>30.002365000000001</v>
       </c>
       <c r="C49">
-        <v>120.760428</v>
+        <v>120.592467</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B50">
-        <v>30.002365000000001</v>
+        <v>31.317986999999999</v>
       </c>
       <c r="C50">
-        <v>120.592467</v>
+        <v>120.619907</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>71</v>
+        <v>2</v>
       </c>
       <c r="B51">
-        <v>31.317986999999999</v>
+        <v>29.102899000000001</v>
       </c>
       <c r="C51">
-        <v>120.619907</v>
+        <v>119.652576</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B52">
-        <v>29.102899000000001</v>
+        <v>31.249161999999998</v>
       </c>
       <c r="C52">
-        <v>119.652576</v>
+        <v>121.487899</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B53">
-        <v>31.249161999999998</v>
+        <v>28.668282999999999</v>
       </c>
       <c r="C53">
-        <v>121.487899</v>
+        <v>121.440613</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B54">
-        <v>28.668282999999999</v>
+        <v>23.120049000000002</v>
       </c>
       <c r="C54">
-        <v>121.440613</v>
+        <v>113.30765</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B55">
-        <v>23.120049000000002</v>
+        <v>32.014665000000001</v>
       </c>
       <c r="C55">
-        <v>113.30765</v>
+        <v>120.873801</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B56">
-        <v>32.014665000000001</v>
+        <v>28.002838000000001</v>
       </c>
       <c r="C56">
-        <v>120.873801</v>
+        <v>120.690635</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B57">
-        <v>28.002838000000001</v>
+        <v>23.035094999999998</v>
       </c>
       <c r="C57">
-        <v>120.690635</v>
+        <v>113.13402600000001</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>20</v>
+        <v>166</v>
       </c>
       <c r="B58">
-        <v>23.035094999999998</v>
+        <v>24.872686999999999</v>
       </c>
       <c r="C58">
-        <v>113.13402600000001</v>
+        <v>102.849576</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>169</v>
+        <v>25</v>
       </c>
       <c r="B59">
-        <v>24.872686999999999</v>
+        <v>29.885259000000001</v>
       </c>
       <c r="C59">
-        <v>102.849576</v>
+        <v>121.57900600000001</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B60">
-        <v>29.885259000000001</v>
+        <v>24.489231</v>
       </c>
       <c r="C60">
-        <v>121.57900600000001</v>
+        <v>118.103886</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B61">
-        <v>24.489231</v>
+        <v>38.900435999999999</v>
       </c>
       <c r="C61">
-        <v>118.103886</v>
+        <v>121.677966</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B62">
-        <v>38.900435999999999</v>
+        <v>23.043023999999999</v>
       </c>
       <c r="C62">
-        <v>121.677966</v>
+        <v>113.763434</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B63">
-        <v>23.043023999999999</v>
+        <v>28.956910000000001</v>
       </c>
       <c r="C63">
-        <v>113.763434</v>
+        <v>118.87584200000001</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B64">
-        <v>28.956910000000001</v>
+        <v>22.546054000000002</v>
       </c>
       <c r="C64">
-        <v>118.87584200000001</v>
+        <v>114.02597400000001</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B65">
-        <v>22.546054000000002</v>
+        <v>26.629906999999999</v>
       </c>
       <c r="C65">
-        <v>114.02597400000001</v>
+        <v>106.709177</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B66">
-        <v>26.629906999999999</v>
+        <v>22.256914999999999</v>
       </c>
       <c r="C66">
-        <v>106.709177</v>
+        <v>113.56244700000001</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B67">
-        <v>22.256914999999999</v>
+        <v>22.575116999999999</v>
       </c>
       <c r="C67">
-        <v>113.56244700000001</v>
+        <v>113.078125</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B68">
-        <v>22.575116999999999</v>
+        <v>22.806493</v>
       </c>
       <c r="C68">
-        <v>113.078125</v>
+        <v>108.297234</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B69">
-        <v>22.806493</v>
+        <v>23.11354</v>
       </c>
       <c r="C69">
-        <v>108.297234</v>
+        <v>114.410658</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B70">
-        <v>23.11354</v>
+        <v>29.662557</v>
       </c>
       <c r="C70">
-        <v>114.410658</v>
+        <v>91.111891</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B71">
-        <v>0</v>
+        <v>26.047125000000001</v>
       </c>
       <c r="C71">
-        <v>0</v>
+        <v>119.33022099999999</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B72">
-        <v>29.662557</v>
+        <v>30.036010000000001</v>
       </c>
       <c r="C72">
-        <v>91.111891</v>
+        <v>122.169872</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B73">
-        <v>26.047125000000001</v>
+        <v>20.022071</v>
       </c>
       <c r="C73">
-        <v>119.33022099999999</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" t="s">
-        <v>67</v>
-      </c>
-      <c r="B74">
-        <v>30.036010000000001</v>
-      </c>
-      <c r="C74">
-        <v>122.169872</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" t="s">
-        <v>69</v>
-      </c>
-      <c r="B75">
-        <v>20.022071</v>
-      </c>
-      <c r="C75">
         <v>110.33080200000001</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -1820,67 +1796,67 @@
   <sheetData>
     <row r="1" spans="1:21">
       <c r="A1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" t="s">
         <v>73</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>74</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>75</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>76</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>77</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>78</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>79</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>80</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>81</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>82</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>83</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>84</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>85</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>86</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>87</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>88</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>89</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>90</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>91</v>
-      </c>
-      <c r="T1" t="s">
-        <v>92</v>
-      </c>
-      <c r="U1" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:21">
@@ -1897,7 +1873,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -1962,7 +1938,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -2027,7 +2003,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -2092,7 +2068,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2157,7 +2133,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2222,7 +2198,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2287,7 +2263,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2352,7 +2328,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -2417,7 +2393,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -2482,7 +2458,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -2547,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -2612,7 +2588,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -2677,7 +2653,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -2742,7 +2718,7 @@
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -2807,7 +2783,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -2872,7 +2848,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -2937,7 +2913,7 @@
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -3002,7 +2978,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -3067,7 +3043,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -3132,7 +3108,7 @@
         <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -3197,7 +3173,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -3262,7 +3238,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -3327,7 +3303,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -3392,7 +3368,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -3457,7 +3433,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -3522,7 +3498,7 @@
         <v>0</v>
       </c>
       <c r="E27" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -3587,7 +3563,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -3652,7 +3628,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -3717,7 +3693,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -3782,7 +3758,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -3847,7 +3823,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -3912,7 +3888,7 @@
         <v>0</v>
       </c>
       <c r="E33" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -3977,7 +3953,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -4042,7 +4018,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F35">
         <v>0</v>
@@ -4107,7 +4083,7 @@
         <v>0</v>
       </c>
       <c r="E36" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -4172,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -4237,7 +4213,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -4302,7 +4278,7 @@
         <v>0</v>
       </c>
       <c r="E39" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -4367,7 +4343,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -4432,7 +4408,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -4497,7 +4473,7 @@
         <v>0</v>
       </c>
       <c r="E42" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -4562,7 +4538,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -4627,7 +4603,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F44">
         <v>0</v>
@@ -4692,7 +4668,7 @@
         <v>0</v>
       </c>
       <c r="E45" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F45">
         <v>0</v>
@@ -4757,7 +4733,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -4822,7 +4798,7 @@
         <v>0</v>
       </c>
       <c r="E47" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -4887,7 +4863,7 @@
         <v>0</v>
       </c>
       <c r="E48" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -4952,7 +4928,7 @@
         <v>0</v>
       </c>
       <c r="E49" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -5017,7 +4993,7 @@
         <v>0</v>
       </c>
       <c r="E50" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -5082,7 +5058,7 @@
         <v>0</v>
       </c>
       <c r="E51" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -5147,7 +5123,7 @@
         <v>0</v>
       </c>
       <c r="E52" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F52">
         <v>0</v>
@@ -5212,7 +5188,7 @@
         <v>0</v>
       </c>
       <c r="E53" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F53">
         <v>0</v>
@@ -5277,7 +5253,7 @@
         <v>0</v>
       </c>
       <c r="E54" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -5342,7 +5318,7 @@
         <v>0</v>
       </c>
       <c r="E55" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F55">
         <v>0</v>
@@ -5407,7 +5383,7 @@
         <v>0</v>
       </c>
       <c r="E56" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F56">
         <v>0</v>
@@ -5472,7 +5448,7 @@
         <v>0</v>
       </c>
       <c r="E57" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F57">
         <v>0</v>
@@ -5537,7 +5513,7 @@
         <v>0</v>
       </c>
       <c r="E58" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F58">
         <v>0</v>
@@ -5602,7 +5578,7 @@
         <v>0</v>
       </c>
       <c r="E59" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F59">
         <v>0</v>
@@ -5667,7 +5643,7 @@
         <v>0</v>
       </c>
       <c r="E60" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F60">
         <v>0</v>
@@ -5732,7 +5708,7 @@
         <v>0</v>
       </c>
       <c r="E61" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F61">
         <v>0</v>
@@ -5797,7 +5773,7 @@
         <v>0</v>
       </c>
       <c r="E62" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -5862,7 +5838,7 @@
         <v>0</v>
       </c>
       <c r="E63" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F63">
         <v>0</v>
@@ -5927,7 +5903,7 @@
         <v>0</v>
       </c>
       <c r="E64" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -5992,7 +5968,7 @@
         <v>0</v>
       </c>
       <c r="E65" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F65">
         <v>0</v>
@@ -6057,7 +6033,7 @@
         <v>0</v>
       </c>
       <c r="E66" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F66">
         <v>0</v>
@@ -6122,7 +6098,7 @@
         <v>0</v>
       </c>
       <c r="E67" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -6187,7 +6163,7 @@
         <v>0</v>
       </c>
       <c r="E68" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F68">
         <v>0</v>
@@ -6252,7 +6228,7 @@
         <v>0</v>
       </c>
       <c r="E69" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -6317,7 +6293,7 @@
         <v>0</v>
       </c>
       <c r="E70" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F70">
         <v>0</v>
@@ -6382,7 +6358,7 @@
         <v>0</v>
       </c>
       <c r="E71" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F71">
         <v>0</v>
@@ -6447,7 +6423,7 @@
         <v>0</v>
       </c>
       <c r="E72" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F72">
         <v>0</v>
@@ -6512,7 +6488,7 @@
         <v>0</v>
       </c>
       <c r="E73" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F73">
         <v>0</v>
@@ -6577,7 +6553,7 @@
         <v>0</v>
       </c>
       <c r="E74" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F74">
         <v>0</v>
@@ -6642,7 +6618,7 @@
         <v>0</v>
       </c>
       <c r="E75" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F75">
         <v>0</v>

--- a/excel/74city.xlsx
+++ b/excel/74city.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10610"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jalon/Documents/code/web-heat-map/public/excel/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{48BE2443-DD65-7B4B-B2AA-11247E3E9FA4}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28245" windowHeight="12285"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,40 +13,15 @@
   <definedNames>
     <definedName name="_74city_geo_ok" localSheetId="1">Sheet2!$A$1:$U$75</definedName>
   </definedNames>
-  <calcPr calcId="162913" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{B219F718-006B-7D48-8A9A-EB41BFC7D29F}" name="74city_geo_ok" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="65001" sourceFile="/Users/jalon/74city_geo_ok.csv" tab="0" comma="1">
-      <textFields count="21">
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" name="74city_geo_ok" type="6" background="1" refreshedVersion="2" saveData="1">
+    <textPr sourceFile="/Users/jalon/74city_geo_ok.csv" tab="0" comma="1">
+      <textFields>
         <textField/>
       </textFields>
     </textPr>
@@ -61,222 +30,233 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168">
+  <si>
+    <t>城市</t>
+  </si>
+  <si>
+    <t>LATB</t>
+  </si>
+  <si>
+    <t>LNGB</t>
+  </si>
+  <si>
+    <t>珠海</t>
+  </si>
+  <si>
+    <t>舟山</t>
+  </si>
+  <si>
+    <t>中山</t>
+  </si>
+  <si>
+    <t>重庆</t>
+  </si>
+  <si>
+    <t>镇江</t>
+  </si>
+  <si>
+    <t>郑州</t>
+  </si>
+  <si>
+    <t>张家口</t>
+  </si>
+  <si>
+    <t>银川</t>
+  </si>
+  <si>
+    <t>扬州</t>
+  </si>
+  <si>
+    <t>盐城</t>
+  </si>
+  <si>
+    <t>徐州</t>
+  </si>
+  <si>
+    <t>西宁</t>
+  </si>
+  <si>
+    <t>邢台</t>
+  </si>
+  <si>
+    <t>西安</t>
+  </si>
+  <si>
+    <t>厦门</t>
+  </si>
+  <si>
+    <t>无锡</t>
+  </si>
+  <si>
+    <t>乌鲁木齐</t>
+  </si>
+  <si>
+    <t>武汉</t>
+  </si>
+  <si>
+    <t>温州</t>
+  </si>
+  <si>
+    <t>天津</t>
+  </si>
+  <si>
+    <t>唐山</t>
+  </si>
+  <si>
+    <t>泰州</t>
+  </si>
+  <si>
+    <t>台州</t>
+  </si>
+  <si>
+    <t>太原</t>
+  </si>
+  <si>
+    <t>苏州</t>
+  </si>
+  <si>
+    <t>宿迁</t>
+  </si>
   <si>
     <t>石家庄</t>
   </si>
   <si>
+    <t>深圳</t>
+  </si>
+  <si>
+    <t>沈阳</t>
+  </si>
+  <si>
+    <t>绍兴</t>
+  </si>
+  <si>
+    <t>上海</t>
+  </si>
+  <si>
+    <t>衢州</t>
+  </si>
+  <si>
+    <t>秦皇岛</t>
+  </si>
+  <si>
+    <t>青岛</t>
+  </si>
+  <si>
+    <t>宁波</t>
+  </si>
+  <si>
+    <t>南通</t>
+  </si>
+  <si>
+    <t>南宁</t>
+  </si>
+  <si>
+    <t>南京</t>
+  </si>
+  <si>
+    <t>南昌</t>
+  </si>
+  <si>
+    <t>连云港</t>
+  </si>
+  <si>
+    <t>拉萨</t>
+  </si>
+  <si>
+    <t>兰州</t>
+  </si>
+  <si>
+    <t>廊坊</t>
+  </si>
+  <si>
+    <t>昆明</t>
+  </si>
+  <si>
+    <t>金华</t>
+  </si>
+  <si>
+    <t>济南</t>
+  </si>
+  <si>
+    <t>嘉兴</t>
+  </si>
+  <si>
+    <t>江门</t>
+  </si>
+  <si>
+    <t>湖州</t>
+  </si>
+  <si>
+    <t>惠州</t>
+  </si>
+  <si>
+    <t>呼和浩特</t>
+  </si>
+  <si>
+    <t>淮安</t>
+  </si>
+  <si>
+    <t>衡水</t>
+  </si>
+  <si>
+    <t>合肥</t>
+  </si>
+  <si>
+    <t>杭州</t>
+  </si>
+  <si>
+    <t>邯郸</t>
+  </si>
+  <si>
+    <t>海口</t>
+  </si>
+  <si>
+    <t>哈尔滨</t>
+  </si>
+  <si>
+    <t>贵阳</t>
+  </si>
+  <si>
+    <t>广州</t>
+  </si>
+  <si>
+    <t>福州</t>
+  </si>
+  <si>
+    <t>佛山</t>
+  </si>
+  <si>
+    <t>东莞</t>
+  </si>
+  <si>
+    <t>大连</t>
+  </si>
+  <si>
+    <t>成都</t>
+  </si>
+  <si>
+    <t>承德</t>
+  </si>
+  <si>
+    <t>常州</t>
+  </si>
+  <si>
+    <t>长沙</t>
+  </si>
+  <si>
     <t>长春</t>
   </si>
   <si>
-    <t>金华</t>
-  </si>
-  <si>
-    <t>邢台</t>
-  </si>
-  <si>
-    <t>呼和浩特</t>
-  </si>
-  <si>
-    <t>上海</t>
+    <t>沧州</t>
+  </si>
+  <si>
+    <t>北京</t>
   </si>
   <si>
     <t>保定</t>
   </si>
   <si>
-    <t>扬州</t>
-  </si>
-  <si>
-    <t>台州</t>
-  </si>
-  <si>
-    <t>西安</t>
-  </si>
-  <si>
-    <t>张家口</t>
-  </si>
-  <si>
-    <t>广州</t>
-  </si>
-  <si>
-    <t>邯郸</t>
-  </si>
-  <si>
-    <t>重庆</t>
-  </si>
-  <si>
-    <t>南通</t>
-  </si>
-  <si>
-    <t>乌鲁木齐</t>
-  </si>
-  <si>
-    <t>常州</t>
-  </si>
-  <si>
-    <t>温州</t>
-  </si>
-  <si>
-    <t>济南</t>
-  </si>
-  <si>
-    <t>连云港</t>
-  </si>
-  <si>
-    <t>佛山</t>
-  </si>
-  <si>
-    <t>衡水</t>
-  </si>
-  <si>
-    <t>淮安</t>
-  </si>
-  <si>
-    <t>唐山</t>
-  </si>
-  <si>
-    <t>南昌</t>
-  </si>
-  <si>
-    <t>宁波</t>
-  </si>
-  <si>
-    <t>郑州</t>
-  </si>
-  <si>
-    <t>宿迁</t>
-  </si>
-  <si>
-    <t>厦门</t>
-  </si>
-  <si>
-    <t>成都</t>
-  </si>
-  <si>
-    <t>泰州</t>
-  </si>
-  <si>
-    <t>中山</t>
-  </si>
-  <si>
-    <t>廊坊</t>
-  </si>
-  <si>
-    <t>盐城</t>
-  </si>
-  <si>
-    <t>东莞</t>
-  </si>
-  <si>
-    <t>太原</t>
-  </si>
-  <si>
-    <t>无锡</t>
-  </si>
-  <si>
-    <t>衢州</t>
-  </si>
-  <si>
-    <t>沧州</t>
-  </si>
-  <si>
-    <t>合肥</t>
-  </si>
-  <si>
-    <t>深圳</t>
-  </si>
-  <si>
-    <t>天津</t>
-  </si>
-  <si>
-    <t>长沙</t>
-  </si>
-  <si>
-    <t>贵阳</t>
-  </si>
-  <si>
-    <t>秦皇岛</t>
-  </si>
-  <si>
-    <t>大连</t>
-  </si>
-  <si>
-    <t>珠海</t>
-  </si>
-  <si>
-    <t>徐州</t>
-  </si>
-  <si>
-    <t>湖州</t>
-  </si>
-  <si>
-    <t>江门</t>
-  </si>
-  <si>
-    <t>北京</t>
-  </si>
-  <si>
-    <t>南宁</t>
-  </si>
-  <si>
-    <t>沈阳</t>
-  </si>
-  <si>
-    <t>杭州</t>
-  </si>
-  <si>
-    <t>惠州</t>
-  </si>
-  <si>
-    <t>武汉</t>
-  </si>
-  <si>
-    <t>承德</t>
-  </si>
-  <si>
-    <t>西宁</t>
-  </si>
-  <si>
-    <t>兰州</t>
-  </si>
-  <si>
-    <t>拉萨</t>
-  </si>
-  <si>
-    <t>哈尔滨</t>
-  </si>
-  <si>
-    <t>镇江</t>
-  </si>
-  <si>
-    <t>福州</t>
-  </si>
-  <si>
-    <t>银川</t>
-  </si>
-  <si>
-    <t>嘉兴</t>
-  </si>
-  <si>
-    <t>舟山</t>
-  </si>
-  <si>
-    <t>绍兴</t>
-  </si>
-  <si>
-    <t>海口</t>
-  </si>
-  <si>
-    <t>南京</t>
-  </si>
-  <si>
-    <t>苏州</t>
-  </si>
-  <si>
-    <t>城市</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ID</t>
   </si>
   <si>
@@ -322,12 +302,6 @@
     <t>XID</t>
   </si>
   <si>
-    <t>LATB</t>
-  </si>
-  <si>
-    <t>LNGB</t>
-  </si>
-  <si>
     <t>Elevation</t>
   </si>
   <si>
@@ -560,52 +534,373 @@
   </si>
   <si>
     <t>娴峰彛</t>
-  </si>
-  <si>
-    <t>昆明</t>
-    <rPh sb="0" eb="2">
-      <t>kun'mi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>青岛</t>
-    <rPh sb="0" eb="2">
-      <t>qin</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -613,9 +908,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -624,24 +1161,68 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="74city_geo_ok" connectionId="1" xr16:uid="{D7BBE8BB-5C0D-6A4F-80DF-6F8BA6AB0DC8}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="74city_geo_ok" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -687,7 +1268,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -720,26 +1301,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -772,23 +1336,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -930,467 +1477,462 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A70" sqref="A70:XFD70"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.25" outlineLevelCol="2"/>
   <cols>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>86</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>87</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>38.048957999999999</v>
+        <v>22.256915</v>
       </c>
       <c r="C2">
-        <v>114.522082</v>
+        <v>113.562447</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3">
-        <v>37.069530999999998</v>
+        <v>30.03601</v>
       </c>
       <c r="C3">
-        <v>114.520487</v>
+        <v>122.169872</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>38.886564999999997</v>
+        <v>38.900436</v>
       </c>
       <c r="C4">
-        <v>115.49481</v>
+        <v>121.677966</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B5">
-        <v>42.986364999999999</v>
+        <v>29.544606</v>
       </c>
       <c r="C5">
-        <v>125.150149</v>
+        <v>106.530635</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>36.609307999999999</v>
+        <v>32.204409</v>
       </c>
       <c r="C6">
-        <v>114.482694</v>
+        <v>119.455835</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>43.840380000000003</v>
+        <v>34.75661</v>
       </c>
       <c r="C7">
-        <v>87.564988</v>
+        <v>113.649644</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>36.682785000000003</v>
+        <v>40.811188</v>
       </c>
       <c r="C8">
-        <v>117.024967</v>
+        <v>114.893782</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>37.746929000000002</v>
+        <v>38.502621</v>
       </c>
       <c r="C9">
-        <v>115.686229</v>
+        <v>106.206479</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>39.650531000000001</v>
+        <v>32.408505</v>
       </c>
       <c r="C10">
-        <v>118.18345100000001</v>
+        <v>119.427778</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>34.756610000000002</v>
+        <v>33.379862</v>
       </c>
       <c r="C11">
-        <v>113.649644</v>
+        <v>120.148872</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>30.679943000000002</v>
+        <v>34.271553</v>
       </c>
       <c r="C12">
-        <v>104.06792299999999</v>
+        <v>117.188107</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>39.518611</v>
+        <v>36.640739</v>
       </c>
       <c r="C13">
-        <v>116.703602</v>
+        <v>101.767921</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>37.890276999999998</v>
+        <v>37.069531</v>
       </c>
       <c r="C14">
-        <v>112.550864</v>
+        <v>114.520487</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>38.297615</v>
+        <v>42.986365</v>
       </c>
       <c r="C15">
-        <v>116.863806</v>
+        <v>125.150149</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>39.143929999999997</v>
+        <v>24.489231</v>
       </c>
       <c r="C16">
-        <v>117.210813</v>
+        <v>118.103886</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="B17">
-        <v>39.945461999999999</v>
+        <v>31.570037</v>
       </c>
       <c r="C17">
-        <v>119.60436799999999</v>
+        <v>120.305456</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="B18">
-        <v>34.271552999999997</v>
+        <v>43.84038</v>
       </c>
       <c r="C18">
-        <v>117.188107</v>
+        <v>87.564988</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="B19">
-        <v>39.929986</v>
+        <v>30.581084</v>
       </c>
       <c r="C19">
-        <v>116.395645</v>
+        <v>114.3162</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>41.808644999999999</v>
+        <v>28.002838</v>
       </c>
       <c r="C20">
-        <v>123.43279099999999</v>
+        <v>120.690635</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>30.581084000000001</v>
+        <v>39.14393</v>
       </c>
       <c r="C21">
-        <v>114.31619999999999</v>
+        <v>117.210813</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>36.640739000000004</v>
+        <v>39.650531</v>
       </c>
       <c r="C22">
-        <v>101.767921</v>
+        <v>118.183451</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>45.773224999999996</v>
+        <v>32.476053</v>
       </c>
       <c r="C23">
-        <v>126.65771700000001</v>
+        <v>119.919606</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>38.502620999999998</v>
+        <v>28.668283</v>
       </c>
       <c r="C24">
-        <v>106.206479</v>
+        <v>121.440613</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>167</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>36.074094000000002</v>
+        <v>37.890277</v>
       </c>
       <c r="C25">
-        <v>120.39348200000001</v>
+        <v>112.550864</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>32.057236000000003</v>
+        <v>31.317987</v>
       </c>
       <c r="C26">
-        <v>118.778074</v>
+        <v>120.619907</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="B27">
-        <v>43.898338000000003</v>
+        <v>33.95205</v>
       </c>
       <c r="C27">
-        <v>125.313642</v>
+        <v>118.296893</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>40.828319</v>
+        <v>38.048958</v>
       </c>
       <c r="C28">
-        <v>111.66035100000001</v>
+        <v>114.522082</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>32.408504999999998</v>
+        <v>22.546054</v>
       </c>
       <c r="C29">
-        <v>119.427778</v>
+        <v>114.025974</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>40.811188000000001</v>
+        <v>41.808645</v>
       </c>
       <c r="C30">
-        <v>114.893782</v>
+        <v>123.432791</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>29.544606000000002</v>
+        <v>30.002365</v>
       </c>
       <c r="C31">
-        <v>106.530635</v>
+        <v>120.592467</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>31.771397</v>
+        <v>31.249162</v>
       </c>
       <c r="C32">
-        <v>119.98186099999999</v>
+        <v>121.487899</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>34.601548999999999</v>
+        <v>28.95691</v>
       </c>
       <c r="C33">
-        <v>119.173872</v>
+        <v>118.875842</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>33.528348999999999</v>
+        <v>39.945462</v>
       </c>
       <c r="C34">
-        <v>119.313295</v>
+        <v>119.604368</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>28.689578000000001</v>
+        <v>36.074094</v>
       </c>
       <c r="C35">
-        <v>115.893528</v>
+        <v>120.393482</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>33.95205</v>
+        <v>29.885259</v>
       </c>
       <c r="C36">
-        <v>118.296893</v>
+        <v>121.579006</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B37">
-        <v>32.476053</v>
+        <v>32.014665</v>
       </c>
       <c r="C37">
-        <v>119.919606</v>
+        <v>120.873801</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>33.379862000000003</v>
+        <v>22.806493</v>
       </c>
       <c r="C38">
-        <v>120.148872</v>
+        <v>108.297234</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>31.570036999999999</v>
+        <v>32.057236</v>
       </c>
       <c r="C39">
-        <v>120.30545600000001</v>
+        <v>118.778074</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>31.866942000000002</v>
+        <v>28.689578</v>
       </c>
       <c r="C40">
-        <v>117.28269899999999</v>
+        <v>115.893528</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1398,81 +1940,81 @@
         <v>42</v>
       </c>
       <c r="B41">
-        <v>28.213477999999999</v>
+        <v>34.601549</v>
       </c>
       <c r="C41">
-        <v>112.979353</v>
+        <v>119.173872</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B42">
-        <v>38.948709999999998</v>
+        <v>29.662557</v>
       </c>
       <c r="C42">
-        <v>121.593478</v>
+        <v>91.111891</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>30.877925000000001</v>
+        <v>36.064226</v>
       </c>
       <c r="C43">
-        <v>120.137243</v>
+        <v>103.823305</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>30.259243999999999</v>
+        <v>39.518611</v>
       </c>
       <c r="C44">
-        <v>120.219375</v>
+        <v>116.703602</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="B45">
-        <v>40.992521000000004</v>
+        <v>24.872687</v>
       </c>
       <c r="C45">
-        <v>117.93382200000001</v>
+        <v>102.849576</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>36.064225999999998</v>
+        <v>29.102899</v>
       </c>
       <c r="C46">
-        <v>103.823305</v>
+        <v>119.652576</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>32.204408999999998</v>
+        <v>36.682785</v>
       </c>
       <c r="C47">
-        <v>119.45583499999999</v>
+        <v>117.024967</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="B48">
         <v>30.773992</v>
@@ -1483,380 +2025,381 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>30.002365000000001</v>
+        <v>22.575117</v>
       </c>
       <c r="C49">
-        <v>120.592467</v>
+        <v>113.078125</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>31.317986999999999</v>
+        <v>30.877925</v>
       </c>
       <c r="C50">
-        <v>120.619907</v>
+        <v>120.137243</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>29.102899000000001</v>
+        <v>23.11354</v>
       </c>
       <c r="C51">
-        <v>119.652576</v>
+        <v>114.410658</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="B52">
-        <v>31.249161999999998</v>
+        <v>40.828319</v>
       </c>
       <c r="C52">
-        <v>121.487899</v>
+        <v>111.660351</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>28.668282999999999</v>
+        <v>33.528349</v>
       </c>
       <c r="C53">
-        <v>121.440613</v>
+        <v>119.313295</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>23.120049000000002</v>
+        <v>37.746929</v>
       </c>
       <c r="C54">
-        <v>113.30765</v>
+        <v>115.686229</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>32.014665000000001</v>
+        <v>31.866942</v>
       </c>
       <c r="C55">
-        <v>120.873801</v>
+        <v>117.282699</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>28.002838000000001</v>
+        <v>30.259244</v>
       </c>
       <c r="C56">
-        <v>120.690635</v>
+        <v>120.219375</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="B57">
-        <v>23.035094999999998</v>
+        <v>36.609308</v>
       </c>
       <c r="C57">
-        <v>113.13402600000001</v>
+        <v>114.482694</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>166</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>24.872686999999999</v>
+        <v>20.022071</v>
       </c>
       <c r="C58">
-        <v>102.849576</v>
+        <v>110.330802</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>29.885259000000001</v>
+        <v>45.773225</v>
       </c>
       <c r="C59">
-        <v>121.57900600000001</v>
+        <v>126.657717</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>24.489231</v>
+        <v>26.629907</v>
       </c>
       <c r="C60">
-        <v>118.103886</v>
+        <v>106.709177</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>38.900435999999999</v>
+        <v>23.120049</v>
       </c>
       <c r="C61">
-        <v>121.677966</v>
+        <v>113.30765</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>23.043023999999999</v>
+        <v>26.047125</v>
       </c>
       <c r="C62">
-        <v>113.763434</v>
+        <v>119.330221</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>28.956910000000001</v>
+        <v>23.035095</v>
       </c>
       <c r="C63">
-        <v>118.87584200000001</v>
+        <v>113.134026</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>22.546054000000002</v>
+        <v>23.043024</v>
       </c>
       <c r="C64">
-        <v>114.02597400000001</v>
+        <v>113.763434</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>26.629906999999999</v>
+        <v>38.94871</v>
       </c>
       <c r="C65">
-        <v>106.709177</v>
+        <v>121.593478</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>22.256914999999999</v>
+        <v>30.679943</v>
       </c>
       <c r="C66">
-        <v>113.56244700000001</v>
+        <v>104.067923</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>22.575116999999999</v>
+        <v>40.992521</v>
       </c>
       <c r="C67">
-        <v>113.078125</v>
+        <v>117.933822</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>22.806493</v>
+        <v>31.771397</v>
       </c>
       <c r="C68">
-        <v>108.297234</v>
+        <v>119.981861</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>23.11354</v>
+        <v>28.213478</v>
       </c>
       <c r="C69">
-        <v>114.410658</v>
+        <v>112.979353</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>29.662557</v>
+        <v>43.898338</v>
       </c>
       <c r="C70">
-        <v>91.111891</v>
+        <v>125.313642</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>26.047125000000001</v>
+        <v>38.297615</v>
       </c>
       <c r="C71">
-        <v>119.33022099999999</v>
+        <v>116.863806</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>30.036010000000001</v>
+        <v>39.929986</v>
       </c>
       <c r="C72">
-        <v>122.169872</v>
+        <v>116.395645</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>20.022071</v>
+        <v>38.886565</v>
       </c>
       <c r="C73">
-        <v>110.33080200000001</v>
+        <v>115.49481</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDAD58B0-BDB8-3843-AC0B-6DB9863C1ECF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:U75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:Q1048576"/>
+      <selection activeCell="P1" sqref="P$1:Q$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="4.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.83203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.83203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="4.83203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4" customWidth="1"/>
+    <col min="2" max="2" width="4.83333333333333" customWidth="1"/>
+    <col min="3" max="3" width="5.5" customWidth="1"/>
+    <col min="4" max="4" width="5.83333333333333" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="6" max="7" width="4.83333333333333" customWidth="1"/>
+    <col min="8" max="8" width="5" customWidth="1"/>
+    <col min="9" max="9" width="7" customWidth="1"/>
+    <col min="10" max="10" width="7.33333333333333" customWidth="1"/>
+    <col min="11" max="11" width="4.83333333333333" customWidth="1"/>
+    <col min="12" max="12" width="5.83333333333333" customWidth="1"/>
+    <col min="13" max="14" width="5.5" customWidth="1"/>
+    <col min="15" max="15" width="4.83333333333333" customWidth="1"/>
+    <col min="16" max="16" width="11" customWidth="1"/>
+    <col min="17" max="17" width="12" customWidth="1"/>
+    <col min="18" max="18" width="9" customWidth="1"/>
+    <col min="19" max="19" width="6.5" customWidth="1"/>
+    <col min="20" max="20" width="4.83333333333333" customWidth="1"/>
+    <col min="21" max="21" width="8.33333333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
       <c r="A1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="I1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="J1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="K1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="L1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="M1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="N1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="O1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="P1" t="s">
-        <v>86</v>
+        <v>1</v>
       </c>
       <c r="Q1" t="s">
-        <v>87</v>
+        <v>2</v>
       </c>
       <c r="R1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="S1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="T1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="U1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:21">
@@ -1873,7 +2416,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -1906,7 +2449,7 @@
         <v>2</v>
       </c>
       <c r="P2">
-        <v>38.048957999999999</v>
+        <v>38.048958</v>
       </c>
       <c r="Q2">
         <v>114.522082</v>
@@ -1938,7 +2481,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -1971,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="P3">
-        <v>37.069530999999998</v>
+        <v>37.069531</v>
       </c>
       <c r="Q3">
         <v>114.520487</v>
@@ -2003,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -2036,7 +2579,7 @@
         <v>2</v>
       </c>
       <c r="P4">
-        <v>38.886564999999997</v>
+        <v>38.886565</v>
       </c>
       <c r="Q4">
         <v>115.49481</v>
@@ -2068,7 +2611,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2101,7 +2644,7 @@
         <v>2</v>
       </c>
       <c r="P5">
-        <v>42.986364999999999</v>
+        <v>42.986365</v>
       </c>
       <c r="Q5">
         <v>125.150149</v>
@@ -2133,7 +2676,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2166,7 +2709,7 @@
         <v>2</v>
       </c>
       <c r="P6">
-        <v>36.609307999999999</v>
+        <v>36.609308</v>
       </c>
       <c r="Q6">
         <v>114.482694</v>
@@ -2198,7 +2741,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2231,7 +2774,7 @@
         <v>2</v>
       </c>
       <c r="P7">
-        <v>43.840380000000003</v>
+        <v>43.84038</v>
       </c>
       <c r="Q7">
         <v>87.564988</v>
@@ -2263,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2296,7 +2839,7 @@
         <v>2</v>
       </c>
       <c r="P8">
-        <v>36.682785000000003</v>
+        <v>36.682785</v>
       </c>
       <c r="Q8">
         <v>117.024967</v>
@@ -2328,7 +2871,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -2361,7 +2904,7 @@
         <v>2</v>
       </c>
       <c r="P9">
-        <v>37.746929000000002</v>
+        <v>37.746929</v>
       </c>
       <c r="Q9">
         <v>115.686229</v>
@@ -2393,7 +2936,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -2426,10 +2969,10 @@
         <v>2</v>
       </c>
       <c r="P10">
-        <v>39.650531000000001</v>
+        <v>39.650531</v>
       </c>
       <c r="Q10">
-        <v>118.18345100000001</v>
+        <v>118.183451</v>
       </c>
       <c r="R10">
         <v>0</v>
@@ -2458,7 +3001,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -2491,7 +3034,7 @@
         <v>2</v>
       </c>
       <c r="P11">
-        <v>34.756610000000002</v>
+        <v>34.75661</v>
       </c>
       <c r="Q11">
         <v>113.649644</v>
@@ -2523,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -2556,10 +3099,10 @@
         <v>2</v>
       </c>
       <c r="P12">
-        <v>30.679943000000002</v>
+        <v>30.679943</v>
       </c>
       <c r="Q12">
-        <v>104.06792299999999</v>
+        <v>104.067923</v>
       </c>
       <c r="R12">
         <v>0</v>
@@ -2588,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -2653,7 +3196,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -2686,7 +3229,7 @@
         <v>2</v>
       </c>
       <c r="P14">
-        <v>37.890276999999998</v>
+        <v>37.890277</v>
       </c>
       <c r="Q14">
         <v>112.550864</v>
@@ -2718,7 +3261,7 @@
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -2783,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -2816,7 +3359,7 @@
         <v>2</v>
       </c>
       <c r="P16">
-        <v>39.143929999999997</v>
+        <v>39.14393</v>
       </c>
       <c r="Q16">
         <v>117.210813</v>
@@ -2848,7 +3391,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -2881,10 +3424,10 @@
         <v>2</v>
       </c>
       <c r="P17">
-        <v>39.945461999999999</v>
+        <v>39.945462</v>
       </c>
       <c r="Q17">
-        <v>119.60436799999999</v>
+        <v>119.604368</v>
       </c>
       <c r="R17">
         <v>0</v>
@@ -2913,7 +3456,7 @@
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -2946,7 +3489,7 @@
         <v>2</v>
       </c>
       <c r="P18">
-        <v>34.271552999999997</v>
+        <v>34.271553</v>
       </c>
       <c r="Q18">
         <v>117.188107</v>
@@ -2978,7 +3521,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -3043,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -3076,10 +3619,10 @@
         <v>2</v>
       </c>
       <c r="P20">
-        <v>41.808644999999999</v>
+        <v>41.808645</v>
       </c>
       <c r="Q20">
-        <v>123.43279099999999</v>
+        <v>123.432791</v>
       </c>
       <c r="R20">
         <v>0</v>
@@ -3108,7 +3651,7 @@
         <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -3141,10 +3684,10 @@
         <v>2</v>
       </c>
       <c r="P21">
-        <v>30.581084000000001</v>
+        <v>30.581084</v>
       </c>
       <c r="Q21">
-        <v>114.31619999999999</v>
+        <v>114.3162</v>
       </c>
       <c r="R21">
         <v>0</v>
@@ -3173,7 +3716,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -3206,7 +3749,7 @@
         <v>2</v>
       </c>
       <c r="P22">
-        <v>36.640739000000004</v>
+        <v>36.640739</v>
       </c>
       <c r="Q22">
         <v>101.767921</v>
@@ -3238,7 +3781,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -3271,10 +3814,10 @@
         <v>2</v>
       </c>
       <c r="P23">
-        <v>45.773224999999996</v>
+        <v>45.773225</v>
       </c>
       <c r="Q23">
-        <v>126.65771700000001</v>
+        <v>126.657717</v>
       </c>
       <c r="R23">
         <v>0</v>
@@ -3303,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -3336,7 +3879,7 @@
         <v>2</v>
       </c>
       <c r="P24">
-        <v>38.502620999999998</v>
+        <v>38.502621</v>
       </c>
       <c r="Q24">
         <v>106.206479</v>
@@ -3368,7 +3911,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -3433,7 +3976,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -3466,7 +4009,7 @@
         <v>2</v>
       </c>
       <c r="P26">
-        <v>32.057236000000003</v>
+        <v>32.057236</v>
       </c>
       <c r="Q26">
         <v>118.778074</v>
@@ -3498,7 +4041,7 @@
         <v>0</v>
       </c>
       <c r="E27" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -3531,7 +4074,7 @@
         <v>2</v>
       </c>
       <c r="P27">
-        <v>43.898338000000003</v>
+        <v>43.898338</v>
       </c>
       <c r="Q27">
         <v>125.313642</v>
@@ -3563,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -3599,7 +4142,7 @@
         <v>40.828319</v>
       </c>
       <c r="Q28">
-        <v>111.66035100000001</v>
+        <v>111.660351</v>
       </c>
       <c r="R28">
         <v>0</v>
@@ -3628,7 +4171,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -3661,7 +4204,7 @@
         <v>2</v>
       </c>
       <c r="P29">
-        <v>32.408504999999998</v>
+        <v>32.408505</v>
       </c>
       <c r="Q29">
         <v>119.427778</v>
@@ -3693,7 +4236,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -3726,7 +4269,7 @@
         <v>2</v>
       </c>
       <c r="P30">
-        <v>40.811188000000001</v>
+        <v>40.811188</v>
       </c>
       <c r="Q30">
         <v>114.893782</v>
@@ -3758,7 +4301,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -3791,7 +4334,7 @@
         <v>2</v>
       </c>
       <c r="P31">
-        <v>29.544606000000002</v>
+        <v>29.544606</v>
       </c>
       <c r="Q31">
         <v>106.530635</v>
@@ -3823,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -3859,7 +4402,7 @@
         <v>31.771397</v>
       </c>
       <c r="Q32">
-        <v>119.98186099999999</v>
+        <v>119.981861</v>
       </c>
       <c r="R32">
         <v>0</v>
@@ -3888,7 +4431,7 @@
         <v>0</v>
       </c>
       <c r="E33" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -3921,7 +4464,7 @@
         <v>2</v>
       </c>
       <c r="P33">
-        <v>34.601548999999999</v>
+        <v>34.601549</v>
       </c>
       <c r="Q33">
         <v>119.173872</v>
@@ -3953,7 +4496,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -3986,7 +4529,7 @@
         <v>2</v>
       </c>
       <c r="P34">
-        <v>33.528348999999999</v>
+        <v>33.528349</v>
       </c>
       <c r="Q34">
         <v>119.313295</v>
@@ -4018,7 +4561,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F35">
         <v>0</v>
@@ -4051,7 +4594,7 @@
         <v>2</v>
       </c>
       <c r="P35">
-        <v>28.689578000000001</v>
+        <v>28.689578</v>
       </c>
       <c r="Q35">
         <v>115.893528</v>
@@ -4083,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="E36" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -4148,7 +4691,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -4213,7 +4756,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -4246,7 +4789,7 @@
         <v>2</v>
       </c>
       <c r="P38">
-        <v>33.379862000000003</v>
+        <v>33.379862</v>
       </c>
       <c r="Q38">
         <v>120.148872</v>
@@ -4278,7 +4821,7 @@
         <v>0</v>
       </c>
       <c r="E39" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -4311,10 +4854,10 @@
         <v>2</v>
       </c>
       <c r="P39">
-        <v>31.570036999999999</v>
+        <v>31.570037</v>
       </c>
       <c r="Q39">
-        <v>120.30545600000001</v>
+        <v>120.305456</v>
       </c>
       <c r="R39">
         <v>0</v>
@@ -4343,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -4376,10 +4919,10 @@
         <v>2</v>
       </c>
       <c r="P40">
-        <v>31.866942000000002</v>
+        <v>31.866942</v>
       </c>
       <c r="Q40">
-        <v>117.28269899999999</v>
+        <v>117.282699</v>
       </c>
       <c r="R40">
         <v>0</v>
@@ -4408,7 +4951,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -4441,7 +4984,7 @@
         <v>2</v>
       </c>
       <c r="P41">
-        <v>28.213477999999999</v>
+        <v>28.213478</v>
       </c>
       <c r="Q41">
         <v>112.979353</v>
@@ -4473,7 +5016,7 @@
         <v>0</v>
       </c>
       <c r="E42" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -4506,7 +5049,7 @@
         <v>2</v>
       </c>
       <c r="P42">
-        <v>38.948709999999998</v>
+        <v>38.94871</v>
       </c>
       <c r="Q42">
         <v>121.593478</v>
@@ -4538,7 +5081,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -4571,7 +5114,7 @@
         <v>2</v>
       </c>
       <c r="P43">
-        <v>30.877925000000001</v>
+        <v>30.877925</v>
       </c>
       <c r="Q43">
         <v>120.137243</v>
@@ -4603,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F44">
         <v>0</v>
@@ -4668,7 +5211,7 @@
         <v>0</v>
       </c>
       <c r="E45" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F45">
         <v>0</v>
@@ -4701,7 +5244,7 @@
         <v>2</v>
       </c>
       <c r="P45">
-        <v>30.259243999999999</v>
+        <v>30.259244</v>
       </c>
       <c r="Q45">
         <v>120.219375</v>
@@ -4733,7 +5276,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -4766,10 +5309,10 @@
         <v>2</v>
       </c>
       <c r="P46">
-        <v>40.992521000000004</v>
+        <v>40.992521</v>
       </c>
       <c r="Q46">
-        <v>117.93382200000001</v>
+        <v>117.933822</v>
       </c>
       <c r="R46">
         <v>0</v>
@@ -4798,7 +5341,7 @@
         <v>0</v>
       </c>
       <c r="E47" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -4831,7 +5374,7 @@
         <v>2</v>
       </c>
       <c r="P47">
-        <v>36.064225999999998</v>
+        <v>36.064226</v>
       </c>
       <c r="Q47">
         <v>103.823305</v>
@@ -4863,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="E48" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -4896,10 +5439,10 @@
         <v>2</v>
       </c>
       <c r="P48">
-        <v>32.204408999999998</v>
+        <v>32.204409</v>
       </c>
       <c r="Q48">
-        <v>119.45583499999999</v>
+        <v>119.455835</v>
       </c>
       <c r="R48">
         <v>0</v>
@@ -4928,7 +5471,7 @@
         <v>0</v>
       </c>
       <c r="E49" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -4993,7 +5536,7 @@
         <v>0</v>
       </c>
       <c r="E50" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -5026,7 +5569,7 @@
         <v>2</v>
       </c>
       <c r="P50">
-        <v>30.002365000000001</v>
+        <v>30.002365</v>
       </c>
       <c r="Q50">
         <v>120.592467</v>
@@ -5058,7 +5601,7 @@
         <v>0</v>
       </c>
       <c r="E51" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -5091,7 +5634,7 @@
         <v>2</v>
       </c>
       <c r="P51">
-        <v>31.317986999999999</v>
+        <v>31.317987</v>
       </c>
       <c r="Q51">
         <v>120.619907</v>
@@ -5123,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="E52" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F52">
         <v>0</v>
@@ -5156,7 +5699,7 @@
         <v>2</v>
       </c>
       <c r="P52">
-        <v>29.102899000000001</v>
+        <v>29.102899</v>
       </c>
       <c r="Q52">
         <v>119.652576</v>
@@ -5188,7 +5731,7 @@
         <v>0</v>
       </c>
       <c r="E53" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F53">
         <v>0</v>
@@ -5221,7 +5764,7 @@
         <v>2</v>
       </c>
       <c r="P53">
-        <v>31.249161999999998</v>
+        <v>31.249162</v>
       </c>
       <c r="Q53">
         <v>121.487899</v>
@@ -5253,7 +5796,7 @@
         <v>0</v>
       </c>
       <c r="E54" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -5286,7 +5829,7 @@
         <v>2</v>
       </c>
       <c r="P54">
-        <v>28.668282999999999</v>
+        <v>28.668283</v>
       </c>
       <c r="Q54">
         <v>121.440613</v>
@@ -5318,7 +5861,7 @@
         <v>0</v>
       </c>
       <c r="E55" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F55">
         <v>0</v>
@@ -5351,7 +5894,7 @@
         <v>2</v>
       </c>
       <c r="P55">
-        <v>23.120049000000002</v>
+        <v>23.120049</v>
       </c>
       <c r="Q55">
         <v>113.30765</v>
@@ -5383,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="E56" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F56">
         <v>0</v>
@@ -5416,7 +5959,7 @@
         <v>2</v>
       </c>
       <c r="P56">
-        <v>32.014665000000001</v>
+        <v>32.014665</v>
       </c>
       <c r="Q56">
         <v>120.873801</v>
@@ -5448,7 +5991,7 @@
         <v>0</v>
       </c>
       <c r="E57" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F57">
         <v>0</v>
@@ -5481,7 +6024,7 @@
         <v>2</v>
       </c>
       <c r="P57">
-        <v>28.002838000000001</v>
+        <v>28.002838</v>
       </c>
       <c r="Q57">
         <v>120.690635</v>
@@ -5513,7 +6056,7 @@
         <v>0</v>
       </c>
       <c r="E58" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F58">
         <v>0</v>
@@ -5546,10 +6089,10 @@
         <v>2</v>
       </c>
       <c r="P58">
-        <v>23.035094999999998</v>
+        <v>23.035095</v>
       </c>
       <c r="Q58">
-        <v>113.13402600000001</v>
+        <v>113.134026</v>
       </c>
       <c r="R58">
         <v>0</v>
@@ -5578,7 +6121,7 @@
         <v>0</v>
       </c>
       <c r="E59" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F59">
         <v>0</v>
@@ -5643,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="E60" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F60">
         <v>0</v>
@@ -5676,10 +6219,10 @@
         <v>2</v>
       </c>
       <c r="P60">
-        <v>29.885259000000001</v>
+        <v>29.885259</v>
       </c>
       <c r="Q60">
-        <v>121.57900600000001</v>
+        <v>121.579006</v>
       </c>
       <c r="R60">
         <v>0</v>
@@ -5708,7 +6251,7 @@
         <v>0</v>
       </c>
       <c r="E61" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F61">
         <v>0</v>
@@ -5773,7 +6316,7 @@
         <v>0</v>
       </c>
       <c r="E62" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -5806,7 +6349,7 @@
         <v>2</v>
       </c>
       <c r="P62">
-        <v>38.900435999999999</v>
+        <v>38.900436</v>
       </c>
       <c r="Q62">
         <v>121.677966</v>
@@ -5838,7 +6381,7 @@
         <v>0</v>
       </c>
       <c r="E63" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F63">
         <v>0</v>
@@ -5871,7 +6414,7 @@
         <v>2</v>
       </c>
       <c r="P63">
-        <v>23.043023999999999</v>
+        <v>23.043024</v>
       </c>
       <c r="Q63">
         <v>113.763434</v>
@@ -5903,7 +6446,7 @@
         <v>0</v>
       </c>
       <c r="E64" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -5936,10 +6479,10 @@
         <v>2</v>
       </c>
       <c r="P64">
-        <v>28.956910000000001</v>
+        <v>28.95691</v>
       </c>
       <c r="Q64">
-        <v>118.87584200000001</v>
+        <v>118.875842</v>
       </c>
       <c r="R64">
         <v>0</v>
@@ -5968,7 +6511,7 @@
         <v>0</v>
       </c>
       <c r="E65" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F65">
         <v>0</v>
@@ -6001,10 +6544,10 @@
         <v>2</v>
       </c>
       <c r="P65">
-        <v>22.546054000000002</v>
+        <v>22.546054</v>
       </c>
       <c r="Q65">
-        <v>114.02597400000001</v>
+        <v>114.025974</v>
       </c>
       <c r="R65">
         <v>0</v>
@@ -6033,7 +6576,7 @@
         <v>0</v>
       </c>
       <c r="E66" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F66">
         <v>0</v>
@@ -6066,7 +6609,7 @@
         <v>2</v>
       </c>
       <c r="P66">
-        <v>26.629906999999999</v>
+        <v>26.629907</v>
       </c>
       <c r="Q66">
         <v>106.709177</v>
@@ -6098,7 +6641,7 @@
         <v>0</v>
       </c>
       <c r="E67" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -6131,10 +6674,10 @@
         <v>2</v>
       </c>
       <c r="P67">
-        <v>22.256914999999999</v>
+        <v>22.256915</v>
       </c>
       <c r="Q67">
-        <v>113.56244700000001</v>
+        <v>113.562447</v>
       </c>
       <c r="R67">
         <v>0</v>
@@ -6163,7 +6706,7 @@
         <v>0</v>
       </c>
       <c r="E68" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F68">
         <v>0</v>
@@ -6196,7 +6739,7 @@
         <v>2</v>
       </c>
       <c r="P68">
-        <v>22.575116999999999</v>
+        <v>22.575117</v>
       </c>
       <c r="Q68">
         <v>113.078125</v>
@@ -6228,7 +6771,7 @@
         <v>0</v>
       </c>
       <c r="E69" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -6293,7 +6836,7 @@
         <v>0</v>
       </c>
       <c r="E70" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F70">
         <v>0</v>
@@ -6358,7 +6901,7 @@
         <v>0</v>
       </c>
       <c r="E71" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F71">
         <v>0</v>
@@ -6423,7 +6966,7 @@
         <v>0</v>
       </c>
       <c r="E72" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F72">
         <v>0</v>
@@ -6488,7 +7031,7 @@
         <v>0</v>
       </c>
       <c r="E73" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F73">
         <v>0</v>
@@ -6521,10 +7064,10 @@
         <v>2</v>
       </c>
       <c r="P73">
-        <v>26.047125000000001</v>
+        <v>26.047125</v>
       </c>
       <c r="Q73">
-        <v>119.33022099999999</v>
+        <v>119.330221</v>
       </c>
       <c r="R73">
         <v>0</v>
@@ -6553,7 +7096,7 @@
         <v>0</v>
       </c>
       <c r="E74" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F74">
         <v>0</v>
@@ -6586,7 +7129,7 @@
         <v>2</v>
       </c>
       <c r="P74">
-        <v>30.036010000000001</v>
+        <v>30.03601</v>
       </c>
       <c r="Q74">
         <v>122.169872</v>
@@ -6618,7 +7161,7 @@
         <v>0</v>
       </c>
       <c r="E75" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F75">
         <v>0</v>
@@ -6654,7 +7197,7 @@
         <v>20.022071</v>
       </c>
       <c r="Q75">
-        <v>110.33080200000001</v>
+        <v>110.330802</v>
       </c>
       <c r="R75">
         <v>0</v>
@@ -6670,7 +7213,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>